--- a/data/output/FV2410_FV2404/UTILMD/44169.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44169.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="507">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7151" uniqueCount="507">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1626,6 +1626,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U309" totalsRowShown="0">
+  <autoFilter ref="A1:U309"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1915,7 +1945,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17037,5 +17070,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/44169.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44169.xlsx
@@ -2957,7 +2957,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5271,7 +5271,7 @@
         <v>488</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5545,7 +5545,7 @@
         <v>489</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5761,7 +5761,7 @@
         <v>490</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6831,7 +6831,7 @@
         <v>488</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8841,7 +8841,7 @@
         <v>495</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -10959,7 +10959,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -11119,7 +11119,7 @@
         <v>496</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -11279,7 +11279,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11881,7 +11881,7 @@
         <v>497</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -12187,7 +12187,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -12493,7 +12493,7 @@
         <v>496</v>
       </c>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -12655,7 +12655,7 @@
         <v>497</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -13475,7 +13475,7 @@
         <v>496</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13691,7 +13691,7 @@
         <v>498</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13841,7 +13841,7 @@
         <v>499</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -14061,7 +14061,7 @@
         <v>495</v>
       </c>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="K219" s="2"/>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -14439,7 +14439,7 @@
         <v>501</v>
       </c>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -14851,7 +14851,7 @@
         <v>501</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -15209,7 +15209,7 @@
         <v>502</v>
       </c>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -15409,7 +15409,7 @@
         <v>503</v>
       </c>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -15857,7 +15857,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -16015,7 +16015,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -16387,7 +16387,7 @@
         <v>497</v>
       </c>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -16837,7 +16837,7 @@
         <v>505</v>
       </c>
       <c r="L270" s="4"/>
-      <c r="M270" s="2" t="s">
+      <c r="M270" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N270" s="2" t="s">
@@ -17149,7 +17149,7 @@
         <v>505</v>
       </c>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -18787,7 +18787,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N307" s="2"/>
